--- a/src/main/java/client/tmp/employees.xlsx
+++ b/src/main/java/client/tmp/employees.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
